--- a/docs/source/_files/example/OTHER_KEY_MFMC_T0.xlsx
+++ b/docs/source/_files/example/OTHER_KEY_MFMC_T0.xlsx
@@ -697,7 +697,7 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>GRMFMC000</t>
+          <t>EGRMFMC000</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>XS2400040460</t>
+          <t>IXS2400040460</t>
         </is>
       </c>
       <c r="B4" s="16" t="n">
@@ -2465,7 +2465,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>XS2400040460</t>
+          <t>IXS2400040460</t>
         </is>
       </c>
       <c r="B5" s="16" t="n">
@@ -2479,7 +2479,7 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>XS2400040460</t>
+          <t>IXS2400040460</t>
         </is>
       </c>
       <c r="B6" s="16" t="n">
@@ -2493,7 +2493,7 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>XS2400040460</t>
+          <t>IXS2400040460</t>
         </is>
       </c>
       <c r="B7" s="16" t="n">
@@ -2507,7 +2507,7 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>XS2400040460</t>
+          <t>IXS2400040460</t>
         </is>
       </c>
       <c r="B8" s="16" t="n">
@@ -2521,7 +2521,7 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>XS2400040460</t>
+          <t>IXS2400040460</t>
         </is>
       </c>
       <c r="B9" s="16" t="n">

--- a/docs/source/_files/example/OTHER_KEY_MFMC_T0.xlsx
+++ b/docs/source/_files/example/OTHER_KEY_MFMC_T0.xlsx
@@ -685,14 +685,14 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>other_key</t>
+          <t>OTHER_KEY</t>
         </is>
       </c>
     </row>
     <row r="5" ht="40" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>SOURCE_ORG</t>
+          <t>RA</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -704,12 +704,12 @@
     <row r="6" ht="40" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>SOURCE_PERSON</t>
+          <t>RP</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>aloumiotis@foo.gr</t>
+          <t>aloumiotis</t>
         </is>
       </c>
     </row>
@@ -2130,7 +2130,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>XS2400040460</t>
+          <t>IXS2400040460</t>
         </is>
       </c>
       <c r="B4" s="16" t="n">
@@ -2764,7 +2764,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>GRS426003000</t>
+          <t>IGRS426003000</t>
         </is>
       </c>
       <c r="B4" s="16" t="n">
